--- a/data/case1/14/Ploss_6.xlsx
+++ b/data/case1/14/Ploss_6.xlsx
@@ -61,7 +61,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.017708113939264081</v>
+        <v>0.017750101154794251</v>
       </c>
     </row>
   </sheetData>
